--- a/tests/validation/BnB_ReferenceFlange-Results-Tilt-1deg.xlsx
+++ b/tests/validation/BnB_ReferenceFlange-Results-Tilt-1deg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\tests\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98760C14-B22E-42E3-9634-BB645C5BAB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285C4F7D-1CF7-47CB-B59A-72643EC36E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-11130" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
+    <workbookView xWindow="-28920" yWindow="-9165" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap30deg" sheetId="2" r:id="rId1"/>
@@ -4146,7 +4146,7 @@
     <numFmt numFmtId="170" formatCode="0.000000"/>
     <numFmt numFmtId="171" formatCode="0.00000000000000000000"/>
     <numFmt numFmtId="172" formatCode="0.0000000"/>
-    <numFmt numFmtId="181" formatCode="0.000E+00"/>
+    <numFmt numFmtId="173" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="66">
     <font>
@@ -5030,7 +5030,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5479,6 +5479,21 @@
     <xf numFmtId="172" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5506,49 +5521,8 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="40">
@@ -20082,7 +20056,7 @@
   <dimension ref="A1:DJ180"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
@@ -20128,32 +20102,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
       <c r="H4" s="47" t="s">
         <v>13</v>
       </c>
@@ -20169,12 +20143,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -20182,12 +20156,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="169"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -20195,12 +20169,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="169"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -20208,12 +20182,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="169"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -20221,12 +20195,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="169"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -20274,112 +20248,112 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="167" t="s">
+      <c r="C13" s="160"/>
+      <c r="D13" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="167" t="s">
+      <c r="C14" s="160"/>
+      <c r="D14" s="159" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="167" t="s">
+      <c r="C15" s="160"/>
+      <c r="D15" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="167" t="str">
+      <c r="C16" s="160"/>
+      <c r="D16" s="159" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size and tilt 1 deg</v>
       </c>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="168">
+      <c r="C17" s="160"/>
+      <c r="D17" s="158">
         <v>0.6</v>
       </c>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="159"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166">
+      <c r="C18" s="160"/>
+      <c r="D18" s="170">
         <v>45459</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="170"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -20567,16 +20541,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="163"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -24539,16 +24513,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B18:C18"/>
@@ -24559,6 +24523,16 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="26" priority="5" stopIfTrue="1" operator="between">
@@ -24598,8 +24572,8 @@
   <dimension ref="A1:DJ180"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J149" sqref="J149"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -24644,32 +24618,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
       <c r="H4" s="47" t="s">
         <v>13</v>
       </c>
@@ -24685,12 +24659,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -24698,12 +24672,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="169"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -24711,12 +24685,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="169"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -24724,12 +24698,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="169"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -24737,12 +24711,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="169"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -24790,117 +24764,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="167" t="str">
+      <c r="C13" s="160"/>
+      <c r="D13" s="159" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="167" t="str">
+      <c r="C14" s="160"/>
+      <c r="D14" s="159" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="167" t="str">
+      <c r="C15" s="160"/>
+      <c r="D15" s="159" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="167" t="str">
+      <c r="C16" s="160"/>
+      <c r="D16" s="159" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size and tilt 1 deg</v>
       </c>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="167">
+      <c r="C17" s="160"/>
+      <c r="D17" s="159">
         <f>Gap30deg!D17</f>
         <v>0.6</v>
       </c>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="159"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166">
+      <c r="C18" s="160"/>
+      <c r="D18" s="170">
         <f>Gap30deg!D18</f>
         <v>45459</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="170"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -25088,16 +25062,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="163"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -29023,13 +28997,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -29043,6 +29010,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="between">
@@ -29082,8 +29056,8 @@
   <dimension ref="A1:DJ180"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J149" sqref="J149"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P90" sqref="P90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -29128,32 +29102,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
       <c r="H4" s="47" t="s">
         <v>13</v>
       </c>
@@ -29169,12 +29143,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -29182,12 +29156,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="169"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -29195,12 +29169,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="169"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -29208,12 +29182,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="169"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -29221,12 +29195,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="169"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -29274,117 +29248,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="167" t="str">
+      <c r="C13" s="160"/>
+      <c r="D13" s="159" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="167" t="str">
+      <c r="C14" s="160"/>
+      <c r="D14" s="159" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="167" t="str">
+      <c r="C15" s="160"/>
+      <c r="D15" s="159" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="167" t="str">
+      <c r="C16" s="160"/>
+      <c r="D16" s="159" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size and tilt 1 deg</v>
       </c>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="167">
+      <c r="C17" s="160"/>
+      <c r="D17" s="159">
         <f>Gap30deg!D17</f>
         <v>0.6</v>
       </c>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="159"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166">
+      <c r="C18" s="160"/>
+      <c r="D18" s="170">
         <f>Gap30deg!D18</f>
         <v>45459</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="170"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -29572,16 +29546,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="163"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -33507,13 +33481,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -33527,6 +33494,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="between">
@@ -33565,8 +33539,8 @@
   </sheetPr>
   <dimension ref="A1:DJ180"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
@@ -33612,32 +33586,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
       <c r="H4" s="47" t="s">
         <v>13</v>
       </c>
@@ -33653,12 +33627,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -33666,12 +33640,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="169"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -33679,12 +33653,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="169"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -33692,12 +33666,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="169"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -33705,12 +33679,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="169"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -33758,117 +33732,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="167" t="str">
+      <c r="C13" s="160"/>
+      <c r="D13" s="159" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="167" t="str">
+      <c r="C14" s="160"/>
+      <c r="D14" s="159" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="167" t="str">
+      <c r="C15" s="160"/>
+      <c r="D15" s="159" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="167" t="str">
+      <c r="C16" s="160"/>
+      <c r="D16" s="159" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size and tilt 1 deg</v>
       </c>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="167">
+      <c r="C17" s="160"/>
+      <c r="D17" s="159">
         <f>Gap30deg!D17</f>
         <v>0.6</v>
       </c>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="159"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166">
+      <c r="C18" s="160"/>
+      <c r="D18" s="170">
         <f>Gap30deg!D18</f>
         <v>45459</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="170"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -34056,16 +34030,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="163"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -37991,13 +37965,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -38011,6 +37978,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="between">
@@ -38047,8 +38021,8 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="B2:R133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -38163,10 +38137,10 @@
       <c r="L27" s="103" t="s">
         <v>197</v>
       </c>
-      <c r="N27" s="169"/>
-      <c r="O27" s="169"/>
-      <c r="P27" s="169"/>
-      <c r="Q27" s="169"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
       <c r="R27" t="str">
         <f t="shared" ref="R27:R66" si="0">IF(H27&lt;&gt;"",H27,"")</f>
         <v>Simplified formula used, therefore not evaluated</v>
@@ -38205,16 +38179,16 @@
       <c r="M28" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N28" s="170">
+      <c r="N28" s="107">
         <v>153.74071147146736</v>
       </c>
-      <c r="O28" s="170">
+      <c r="O28" s="107">
         <v>153.74071147146736</v>
       </c>
-      <c r="P28" s="170">
+      <c r="P28" s="107">
         <v>153.74071147146736</v>
       </c>
-      <c r="Q28" s="170">
+      <c r="Q28" s="107">
         <v>153.74071147146736</v>
       </c>
       <c r="R28" t="str">
@@ -38253,16 +38227,16 @@
       <c r="M29" s="103" t="s">
         <v>205</v>
       </c>
-      <c r="N29" s="170">
+      <c r="N29" s="107">
         <v>900</v>
       </c>
-      <c r="O29" s="170">
+      <c r="O29" s="107">
         <v>900</v>
       </c>
-      <c r="P29" s="170">
+      <c r="P29" s="107">
         <v>900</v>
       </c>
-      <c r="Q29" s="170">
+      <c r="Q29" s="107">
         <v>900</v>
       </c>
       <c r="R29" t="str">
@@ -38298,16 +38272,16 @@
       <c r="M30" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="N30" s="170">
+      <c r="N30" s="107">
         <v>4344.0716042398344</v>
       </c>
-      <c r="O30" s="170">
+      <c r="O30" s="107">
         <v>4344.0716042398344</v>
       </c>
-      <c r="P30" s="170">
+      <c r="P30" s="107">
         <v>4344.0716042398344</v>
       </c>
-      <c r="Q30" s="170">
+      <c r="Q30" s="107">
         <v>4344.0716042398344</v>
       </c>
       <c r="R30" t="str">
@@ -38352,16 +38326,16 @@
       <c r="M31" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N31" s="170">
+      <c r="N31" s="107">
         <v>2876</v>
       </c>
-      <c r="O31" s="170">
+      <c r="O31" s="107">
         <v>2876</v>
       </c>
-      <c r="P31" s="170">
+      <c r="P31" s="107">
         <v>2876</v>
       </c>
-      <c r="Q31" s="170">
+      <c r="Q31" s="107">
         <v>2876</v>
       </c>
       <c r="R31" t="str">
@@ -38393,16 +38367,16 @@
       <c r="M32" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N32" s="170">
+      <c r="N32" s="107">
         <v>3144.2390271487925</v>
       </c>
-      <c r="O32" s="170">
+      <c r="O32" s="107">
         <v>3144.2390271487925</v>
       </c>
-      <c r="P32" s="170">
+      <c r="P32" s="107">
         <v>3144.2390271487925</v>
       </c>
-      <c r="Q32" s="170">
+      <c r="Q32" s="107">
         <v>3144.2390271487925</v>
       </c>
       <c r="R32" t="str">
@@ -38434,16 +38408,16 @@
       <c r="M33" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="N33" s="172">
+      <c r="N33" s="109">
         <v>0.03</v>
       </c>
-      <c r="O33" s="172">
+      <c r="O33" s="109">
         <v>0.03</v>
       </c>
-      <c r="P33" s="172">
+      <c r="P33" s="109">
         <v>0.03</v>
       </c>
-      <c r="Q33" s="172">
+      <c r="Q33" s="109">
         <v>0.03</v>
       </c>
       <c r="R33" t="str">
@@ -38478,16 +38452,16 @@
       <c r="M34" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N34" s="170">
+      <c r="N34" s="107">
         <v>3074.8142294293471</v>
       </c>
-      <c r="O34" s="170">
+      <c r="O34" s="107">
         <v>3074.8142294293471</v>
       </c>
-      <c r="P34" s="170">
+      <c r="P34" s="107">
         <v>3074.8142294293471</v>
       </c>
-      <c r="Q34" s="170">
+      <c r="Q34" s="107">
         <v>3074.8142294293471</v>
       </c>
       <c r="R34" t="str">
@@ -38529,16 +38503,16 @@
       <c r="M35" s="130" t="s">
         <v>127</v>
       </c>
-      <c r="N35" s="178">
+      <c r="N35" s="129">
         <v>2466</v>
       </c>
-      <c r="O35" s="178">
+      <c r="O35" s="129">
         <v>2466</v>
       </c>
-      <c r="P35" s="178">
+      <c r="P35" s="129">
         <v>2466</v>
       </c>
-      <c r="Q35" s="178">
+      <c r="Q35" s="129">
         <v>2466</v>
       </c>
       <c r="R35" t="str">
@@ -38575,16 +38549,16 @@
       <c r="M36" s="103" t="s">
         <v>275</v>
       </c>
-      <c r="N36" s="176">
+      <c r="N36" s="114">
         <v>5.8458922294713925E-10</v>
       </c>
-      <c r="O36" s="176">
+      <c r="O36" s="114">
         <v>5.8458922294713925E-10</v>
       </c>
-      <c r="P36" s="176">
+      <c r="P36" s="114">
         <v>5.8458922294713925E-10</v>
       </c>
-      <c r="Q36" s="176">
+      <c r="Q36" s="114">
         <v>5.8458922294713925E-10</v>
       </c>
       <c r="R36" t="str">
@@ -38622,16 +38596,16 @@
       <c r="M37" s="103" t="s">
         <v>275</v>
       </c>
-      <c r="N37" s="176">
+      <c r="N37" s="114">
         <v>9.6993208304588435E-11</v>
       </c>
-      <c r="O37" s="176">
+      <c r="O37" s="114">
         <v>9.6993208304588435E-11</v>
       </c>
-      <c r="P37" s="176">
+      <c r="P37" s="114">
         <v>9.6993208304588435E-11</v>
       </c>
-      <c r="Q37" s="176">
+      <c r="Q37" s="114">
         <v>9.6993208304588435E-11</v>
       </c>
       <c r="R37" t="str">
@@ -38669,16 +38643,16 @@
       <c r="M38" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="N38" s="172">
+      <c r="N38" s="109">
         <v>0.1423059102718657</v>
       </c>
-      <c r="O38" s="172">
+      <c r="O38" s="109">
         <v>0.1423059102718657</v>
       </c>
-      <c r="P38" s="172">
+      <c r="P38" s="109">
         <v>0.1423059102718657</v>
       </c>
-      <c r="Q38" s="172">
+      <c r="Q38" s="109">
         <v>0.1423059102718657</v>
       </c>
       <c r="R38" t="str">
@@ -38717,16 +38691,16 @@
       <c r="M39" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N39" s="171">
+      <c r="N39" s="108">
         <v>48.860015706266829</v>
       </c>
-      <c r="O39" s="171">
+      <c r="O39" s="108">
         <v>48.860015706266829</v>
       </c>
-      <c r="P39" s="171">
+      <c r="P39" s="108">
         <v>48.860015706266829</v>
       </c>
-      <c r="Q39" s="171">
+      <c r="Q39" s="108">
         <v>48.860015706266829</v>
       </c>
       <c r="R39" t="str">
@@ -38759,16 +38733,16 @@
       <c r="M40" s="103" t="s">
         <v>274</v>
       </c>
-      <c r="N40" s="170">
+      <c r="N40" s="107">
         <v>200</v>
       </c>
-      <c r="O40" s="170">
+      <c r="O40" s="107">
         <v>200</v>
       </c>
-      <c r="P40" s="170">
+      <c r="P40" s="107">
         <v>200</v>
       </c>
-      <c r="Q40" s="170">
+      <c r="Q40" s="107">
         <v>200</v>
       </c>
       <c r="R40" t="str">
@@ -38810,16 +38784,16 @@
       <c r="M41" s="103" t="s">
         <v>274</v>
       </c>
-      <c r="N41" s="170">
+      <c r="N41" s="107">
         <v>33.30212829607494</v>
       </c>
-      <c r="O41" s="170">
+      <c r="O41" s="107">
         <v>33.30212829607494</v>
       </c>
-      <c r="P41" s="170">
+      <c r="P41" s="107">
         <v>33.30212829607494</v>
       </c>
-      <c r="Q41" s="170">
+      <c r="Q41" s="107">
         <v>33.30212829607494</v>
       </c>
       <c r="R41" t="str">
@@ -38858,16 +38832,16 @@
       <c r="M42" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N42" s="174">
+      <c r="N42" s="111">
         <v>3323.2147772434732</v>
       </c>
-      <c r="O42" s="174">
+      <c r="O42" s="111">
         <v>3323.2147772434732</v>
       </c>
-      <c r="P42" s="174">
+      <c r="P42" s="111">
         <v>3323.2147772434732</v>
       </c>
-      <c r="Q42" s="174">
+      <c r="Q42" s="111">
         <v>3323.2147772434732</v>
       </c>
       <c r="R42" t="str">
@@ -38909,16 +38883,16 @@
       <c r="M43" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="N43" s="170">
+      <c r="N43" s="107">
         <v>321.69550000000004</v>
       </c>
-      <c r="O43" s="170">
+      <c r="O43" s="107">
         <v>321.69550000000004</v>
       </c>
-      <c r="P43" s="170">
+      <c r="P43" s="107">
         <v>321.69550000000004</v>
       </c>
-      <c r="Q43" s="170">
+      <c r="Q43" s="107">
         <v>321.69550000000004</v>
       </c>
       <c r="R43" t="str">
@@ -38957,16 +38931,16 @@
       <c r="M44" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="N44" s="170">
+      <c r="N44" s="107">
         <v>321.69550000000004</v>
       </c>
-      <c r="O44" s="170">
+      <c r="O44" s="107">
         <v>321.69550000000004</v>
       </c>
-      <c r="P44" s="170">
+      <c r="P44" s="107">
         <v>321.69550000000004</v>
       </c>
-      <c r="Q44" s="170">
+      <c r="Q44" s="107">
         <v>321.69550000000004</v>
       </c>
       <c r="R44" t="str">
@@ -39005,16 +38979,16 @@
       <c r="M45" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="N45" s="170">
+      <c r="N45" s="107">
         <v>-318.4495</v>
       </c>
-      <c r="O45" s="170">
+      <c r="O45" s="107">
         <v>-318.4495</v>
       </c>
-      <c r="P45" s="170">
+      <c r="P45" s="107">
         <v>-318.4495</v>
       </c>
-      <c r="Q45" s="170">
+      <c r="Q45" s="107">
         <v>-318.4495</v>
       </c>
       <c r="R45" t="str">
@@ -39047,16 +39021,16 @@
       <c r="M46" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N46" s="174">
+      <c r="N46" s="111">
         <v>1320.324829474062</v>
       </c>
-      <c r="O46" s="174">
+      <c r="O46" s="111">
         <v>1320.324829474062</v>
       </c>
-      <c r="P46" s="174">
+      <c r="P46" s="111">
         <v>1320.324829474062</v>
       </c>
-      <c r="Q46" s="174">
+      <c r="Q46" s="111">
         <v>1320.324829474062</v>
       </c>
       <c r="R46" t="str">
@@ -39095,10 +39069,10 @@
       <c r="M47" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="N47" s="169"/>
-      <c r="O47" s="169"/>
-      <c r="P47" s="169"/>
-      <c r="Q47" s="169"/>
+      <c r="N47" s="104"/>
+      <c r="O47" s="104"/>
+      <c r="P47" s="104"/>
+      <c r="Q47" s="104"/>
       <c r="R47" t="str">
         <f t="shared" si="0"/>
         <v>(valid in case L-Flange is calculated)</v>
@@ -39133,16 +39107,16 @@
       <c r="M48" s="103" t="s">
         <v>179</v>
       </c>
-      <c r="N48" s="173">
+      <c r="N48" s="110">
         <v>30</v>
       </c>
-      <c r="O48" s="173">
+      <c r="O48" s="110">
         <v>60</v>
       </c>
-      <c r="P48" s="173">
+      <c r="P48" s="110">
         <v>90</v>
       </c>
-      <c r="Q48" s="173">
+      <c r="Q48" s="110">
         <v>120</v>
       </c>
       <c r="R48" t="str">
@@ -39182,16 +39156,16 @@
       <c r="M49" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="N49" s="172">
+      <c r="N49" s="109">
         <v>1.9634954084936207</v>
       </c>
-      <c r="O49" s="172">
+      <c r="O49" s="109">
         <v>3.9269908169872414</v>
       </c>
-      <c r="P49" s="172">
+      <c r="P49" s="109">
         <v>5.8904862254808625</v>
       </c>
-      <c r="Q49" s="172">
+      <c r="Q49" s="109">
         <v>7.8539816339744828</v>
       </c>
       <c r="R49" t="str">
@@ -39228,16 +39202,16 @@
       <c r="M50" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="N50" s="172">
+      <c r="N50" s="109">
         <v>7.5</v>
       </c>
-      <c r="O50" s="172">
+      <c r="O50" s="109">
         <v>7.5</v>
       </c>
-      <c r="P50" s="172">
+      <c r="P50" s="109">
         <v>7.5</v>
       </c>
-      <c r="Q50" s="172">
+      <c r="Q50" s="109">
         <v>7.5</v>
       </c>
       <c r="R50" t="str">
@@ -39274,16 +39248,16 @@
       <c r="M51" s="103" t="s">
         <v>176</v>
       </c>
-      <c r="N51" s="171">
+      <c r="N51" s="108">
         <v>1.4</v>
       </c>
-      <c r="O51" s="171">
+      <c r="O51" s="108">
         <v>1.4</v>
       </c>
-      <c r="P51" s="171">
+      <c r="P51" s="108">
         <v>1.4</v>
       </c>
-      <c r="Q51" s="171">
+      <c r="Q51" s="108">
         <v>1.4</v>
       </c>
       <c r="R51" t="str">
@@ -39326,16 +39300,16 @@
       <c r="M52" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="N52" s="172">
+      <c r="N52" s="109">
         <v>0.28773533056547307</v>
       </c>
-      <c r="O52" s="172">
+      <c r="O52" s="109">
         <v>0.74253427729521915</v>
       </c>
-      <c r="P52" s="172">
+      <c r="P52" s="109">
         <v>1.3643968401892383</v>
       </c>
-      <c r="Q52" s="172">
+      <c r="Q52" s="109">
         <v>2.1533230192475301</v>
       </c>
       <c r="R52" t="str">
@@ -39378,16 +39352,16 @@
       <c r="M53" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="N53" s="172">
+      <c r="N53" s="109">
         <v>1.2162355202035975</v>
       </c>
-      <c r="O53" s="172">
+      <c r="O53" s="109">
         <v>0.63575115537527993</v>
       </c>
-      <c r="P53" s="172">
+      <c r="P53" s="109">
         <v>0.4993626397773579</v>
       </c>
-      <c r="Q53" s="172">
+      <c r="Q53" s="109">
         <v>0.44426272750754409</v>
       </c>
       <c r="R53" t="str">
@@ -39420,16 +39394,16 @@
       <c r="M54" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="N54" s="172">
+      <c r="N54" s="109">
         <v>1.9634954084936205</v>
       </c>
-      <c r="O54" s="172">
+      <c r="O54" s="109">
         <v>1.9634954084936205</v>
       </c>
-      <c r="P54" s="172">
+      <c r="P54" s="109">
         <v>1.9634954084936205</v>
       </c>
-      <c r="Q54" s="172">
+      <c r="Q54" s="109">
         <v>1.9634954084936205</v>
       </c>
       <c r="R54" t="str">
@@ -39468,16 +39442,16 @@
       <c r="M55" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="N55" s="172">
+      <c r="N55" s="109">
         <v>1.9617469257392748</v>
       </c>
-      <c r="O55" s="172">
+      <c r="O55" s="109">
         <v>1.9617469257392748</v>
       </c>
-      <c r="P55" s="172">
+      <c r="P55" s="109">
         <v>1.9617469257392748</v>
       </c>
-      <c r="Q55" s="172">
+      <c r="Q55" s="109">
         <v>1.9617469257392748</v>
       </c>
       <c r="R55" t="str">
@@ -39516,16 +39490,16 @@
       <c r="M56" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="N56" s="172">
+      <c r="N56" s="109">
         <v>2.942620388608912</v>
       </c>
-      <c r="O56" s="172">
+      <c r="O56" s="109">
         <v>2.942620388608912</v>
       </c>
-      <c r="P56" s="172">
+      <c r="P56" s="109">
         <v>2.942620388608912</v>
       </c>
-      <c r="Q56" s="172">
+      <c r="Q56" s="109">
         <v>2.942620388608912</v>
       </c>
       <c r="R56" t="str">
@@ -39560,16 +39534,16 @@
         <v>169</v>
       </c>
       <c r="M57" s="103"/>
-      <c r="N57" s="172">
+      <c r="N57" s="109">
         <v>0.95286282352314688</v>
       </c>
-      <c r="O57" s="172">
+      <c r="O57" s="109">
         <v>0.58262609700472079</v>
       </c>
-      <c r="P57" s="172">
+      <c r="P57" s="109">
         <v>0.47184092472685457</v>
       </c>
-      <c r="Q57" s="172">
+      <c r="Q57" s="109">
         <v>0.42441366570439232</v>
       </c>
       <c r="R57" t="str">
@@ -39604,16 +39578,16 @@
         <v>168</v>
       </c>
       <c r="M58" s="103"/>
-      <c r="N58" s="172">
+      <c r="N58" s="109">
         <v>-1.6996879926957522</v>
       </c>
-      <c r="O58" s="172">
+      <c r="O58" s="109">
         <v>-0.46741282911895099</v>
       </c>
-      <c r="P58" s="172">
+      <c r="P58" s="109">
         <v>0.19939552653846943</v>
       </c>
-      <c r="Q58" s="172">
+      <c r="Q58" s="109">
         <v>0.67694875947348121</v>
       </c>
       <c r="R58" t="str">
@@ -39648,16 +39622,16 @@
         <v>167</v>
       </c>
       <c r="M59" s="103"/>
-      <c r="N59" s="172">
+      <c r="N59" s="109">
         <v>-0.13232393428252798</v>
       </c>
-      <c r="O59" s="172">
+      <c r="O59" s="109">
         <v>0.49094883784411425</v>
       </c>
-      <c r="P59" s="172">
+      <c r="P59" s="109">
         <v>0.97552666362167262</v>
       </c>
-      <c r="Q59" s="172">
+      <c r="Q59" s="109">
         <v>1.3750667981906362</v>
       </c>
       <c r="R59" t="str">
@@ -39700,16 +39674,16 @@
       <c r="M60" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="N60" s="172">
+      <c r="N60" s="109">
         <v>0.87601845454409977</v>
       </c>
-      <c r="O60" s="172">
+      <c r="O60" s="109">
         <v>1.6338216149415525</v>
       </c>
-      <c r="P60" s="172">
+      <c r="P60" s="109">
         <v>2.6525058127308667</v>
       </c>
-      <c r="Q60" s="172">
+      <c r="Q60" s="109">
         <v>3.9552630780086151</v>
       </c>
       <c r="R60" t="str">
@@ -39749,16 +39723,16 @@
       <c r="M61" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="N61" s="172">
+      <c r="N61" s="109">
         <v>0.87601845454409977</v>
       </c>
-      <c r="O61" s="172">
+      <c r="O61" s="109">
         <v>1.6338216149415525</v>
       </c>
-      <c r="P61" s="172">
+      <c r="P61" s="109">
         <v>2.6525058127308667</v>
       </c>
-      <c r="Q61" s="172">
+      <c r="Q61" s="109">
         <v>3.9552630780086151</v>
       </c>
       <c r="R61" t="str">
@@ -39791,10 +39765,10 @@
         <v>163</v>
       </c>
       <c r="M62" s="103"/>
-      <c r="N62" s="177"/>
-      <c r="O62" s="177"/>
-      <c r="P62" s="177"/>
-      <c r="Q62" s="177"/>
+      <c r="N62" s="128"/>
+      <c r="O62" s="128"/>
+      <c r="P62" s="128"/>
+      <c r="Q62" s="128"/>
       <c r="R62" t="str">
         <f t="shared" si="0"/>
         <v>Gap shape formula</v>
@@ -39825,10 +39799,10 @@
         <v>161</v>
       </c>
       <c r="M63" s="103"/>
-      <c r="N63" s="177"/>
-      <c r="O63" s="177"/>
-      <c r="P63" s="177"/>
-      <c r="Q63" s="177"/>
+      <c r="N63" s="128"/>
+      <c r="O63" s="128"/>
+      <c r="P63" s="128"/>
+      <c r="Q63" s="128"/>
       <c r="R63" t="str">
         <f t="shared" si="0"/>
         <v>Stress range formula</v>
@@ -39856,10 +39830,10 @@
         <v>159</v>
       </c>
       <c r="M64" s="103"/>
-      <c r="N64" s="169"/>
-      <c r="O64" s="169"/>
-      <c r="P64" s="169"/>
-      <c r="Q64" s="169"/>
+      <c r="N64" s="104"/>
+      <c r="O64" s="104"/>
+      <c r="P64" s="104"/>
+      <c r="Q64" s="104"/>
       <c r="R64" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39887,10 +39861,10 @@
         <v>158</v>
       </c>
       <c r="M65" s="103"/>
-      <c r="N65" s="169"/>
-      <c r="O65" s="169"/>
-      <c r="P65" s="169"/>
-      <c r="Q65" s="169"/>
+      <c r="N65" s="104"/>
+      <c r="O65" s="104"/>
+      <c r="P65" s="104"/>
+      <c r="Q65" s="104"/>
       <c r="R65" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39921,10 +39895,10 @@
         <v>157</v>
       </c>
       <c r="M66" s="103"/>
-      <c r="N66" s="177"/>
-      <c r="O66" s="177"/>
-      <c r="P66" s="177"/>
-      <c r="Q66" s="177"/>
+      <c r="N66" s="128"/>
+      <c r="O66" s="128"/>
+      <c r="P66" s="128"/>
+      <c r="Q66" s="128"/>
       <c r="R66" t="str">
         <f t="shared" si="0"/>
         <v>Summarized formula for bolt force curve</v>
@@ -39957,16 +39931,16 @@
       <c r="M67" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N67" s="172">
+      <c r="N67" s="109">
         <v>-123.29166666666667</v>
       </c>
-      <c r="O67" s="172">
+      <c r="O67" s="109">
         <v>-123.29166666666667</v>
       </c>
-      <c r="P67" s="172">
+      <c r="P67" s="109">
         <v>-123.29166666666667</v>
       </c>
-      <c r="Q67" s="172">
+      <c r="Q67" s="109">
         <v>-123.29166666666667</v>
       </c>
     </row>
@@ -39997,16 +39971,16 @@
       <c r="M68" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N68" s="172">
+      <c r="N68" s="109">
         <v>2876</v>
       </c>
-      <c r="O68" s="172">
+      <c r="O68" s="109">
         <v>2876</v>
       </c>
-      <c r="P68" s="172">
+      <c r="P68" s="109">
         <v>2876</v>
       </c>
-      <c r="Q68" s="172">
+      <c r="Q68" s="109">
         <v>2876</v>
       </c>
     </row>
@@ -40037,16 +40011,16 @@
       <c r="M69" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N69" s="172">
+      <c r="N69" s="109">
         <v>2068.2520235998149</v>
       </c>
-      <c r="O69" s="172">
+      <c r="O69" s="109">
         <v>2068.2520235998149</v>
       </c>
-      <c r="P69" s="172">
+      <c r="P69" s="109">
         <v>2068.2520235998149</v>
       </c>
-      <c r="Q69" s="172">
+      <c r="Q69" s="109">
         <v>2068.2520235998149</v>
       </c>
     </row>
@@ -40077,16 +40051,16 @@
       <c r="M70" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N70" s="172">
+      <c r="N70" s="109">
         <v>3595</v>
       </c>
-      <c r="O70" s="172">
+      <c r="O70" s="109">
         <v>3595</v>
       </c>
-      <c r="P70" s="172">
+      <c r="P70" s="109">
         <v>3595</v>
       </c>
-      <c r="Q70" s="172">
+      <c r="Q70" s="109">
         <v>3595</v>
       </c>
     </row>
@@ -40117,16 +40091,16 @@
       <c r="M71" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N71" s="172">
+      <c r="N71" s="109">
         <v>251.14925721102841</v>
       </c>
-      <c r="O71" s="172">
+      <c r="O71" s="109">
         <v>139.05186524303502</v>
       </c>
-      <c r="P71" s="172">
+      <c r="P71" s="109">
         <v>121.69300747304081</v>
       </c>
-      <c r="Q71" s="172">
+      <c r="Q71" s="109">
         <v>114.91573803665135</v>
       </c>
     </row>
@@ -40157,16 +40131,16 @@
       <c r="M72" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N72" s="172">
+      <c r="N72" s="109">
         <v>2893.3336582697984</v>
       </c>
-      <c r="O72" s="172">
+      <c r="O72" s="109">
         <v>2876.0001128380427</v>
       </c>
-      <c r="P72" s="172">
+      <c r="P72" s="109">
         <v>2876.0001053717274</v>
       </c>
-      <c r="Q72" s="172">
+      <c r="Q72" s="109">
         <v>2876.0001024567182</v>
       </c>
     </row>
@@ -40189,16 +40163,16 @@
         <v>309</v>
       </c>
       <c r="M73" s="103"/>
-      <c r="N73" s="173">
+      <c r="N73" s="110">
         <v>1491121151.8059449</v>
       </c>
-      <c r="O73" s="173">
+      <c r="O73" s="110">
         <v>1109169153.4307256</v>
       </c>
-      <c r="P73" s="173">
+      <c r="P73" s="110">
         <v>1045097057.0864795</v>
       </c>
-      <c r="Q73" s="173">
+      <c r="Q73" s="110">
         <v>1019723453.7372863</v>
       </c>
     </row>
@@ -40221,16 +40195,16 @@
         <v>308</v>
       </c>
       <c r="M74" s="103"/>
-      <c r="N74" s="174">
+      <c r="N74" s="111">
         <v>231235.55485765054</v>
       </c>
-      <c r="O74" s="174">
+      <c r="O74" s="111">
         <v>188624.75215357504</v>
       </c>
-      <c r="P74" s="174">
+      <c r="P74" s="111">
         <v>176143.74977970537</v>
       </c>
-      <c r="Q74" s="174">
+      <c r="Q74" s="111">
         <v>171270.89944331138</v>
       </c>
     </row>
@@ -40253,16 +40227,16 @@
         <v>307</v>
       </c>
       <c r="M75" s="103"/>
-      <c r="N75" s="174">
+      <c r="N75" s="111">
         <v>39461914.8614816</v>
       </c>
-      <c r="O75" s="174">
+      <c r="O75" s="111">
         <v>-2972286.4794150949</v>
       </c>
-      <c r="P75" s="174">
+      <c r="P75" s="111">
         <v>282043.33752121392</v>
       </c>
-      <c r="Q75" s="174">
+      <c r="Q75" s="111">
         <v>1434991.4290897031</v>
       </c>
     </row>
@@ -40289,16 +40263,16 @@
         <v>306</v>
       </c>
       <c r="M76" s="103"/>
-      <c r="N76" s="180">
+      <c r="N76" s="157">
         <v>1.5507496126494731E-4</v>
       </c>
-      <c r="O76" s="180">
+      <c r="O76" s="157">
         <v>1.7005950045594718E-4</v>
       </c>
-      <c r="P76" s="180">
+      <c r="P76" s="157">
         <v>1.6854295836480368E-4</v>
       </c>
-      <c r="Q76" s="180">
+      <c r="Q76" s="157">
         <v>1.6795818397194215E-4</v>
       </c>
     </row>
@@ -40325,16 +40299,16 @@
         <v>305</v>
       </c>
       <c r="M77" s="103"/>
-      <c r="N77" s="180">
+      <c r="N77" s="157">
         <v>2.6464593312010901E-2</v>
       </c>
-      <c r="O77" s="180">
+      <c r="O77" s="157">
         <v>-2.6797413813949276E-3</v>
       </c>
-      <c r="P77" s="180">
+      <c r="P77" s="157">
         <v>2.6987286549968293E-4</v>
       </c>
-      <c r="Q77" s="180">
+      <c r="Q77" s="157">
         <v>1.4072358773650441E-3</v>
       </c>
     </row>
@@ -40361,16 +40335,16 @@
         <v>304</v>
       </c>
       <c r="M78" s="103"/>
-      <c r="N78" s="171">
+      <c r="N78" s="108">
         <v>2876.9055949075041</v>
       </c>
-      <c r="O78" s="171">
+      <c r="O78" s="108">
         <v>2873.0845638004289</v>
       </c>
-      <c r="P78" s="171">
+      <c r="P78" s="108">
         <v>2873.4712793631561</v>
       </c>
-      <c r="Q78" s="171">
+      <c r="Q78" s="108">
         <v>2873.6203958035926</v>
       </c>
     </row>
@@ -40409,16 +40383,16 @@
       <c r="M79" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N79" s="170">
+      <c r="N79" s="107">
         <v>1244.3580111747735</v>
       </c>
-      <c r="O79" s="170">
+      <c r="O79" s="107">
         <v>806.61559168592612</v>
       </c>
-      <c r="P79" s="170">
+      <c r="P79" s="107">
         <v>712.67155159683637</v>
       </c>
-      <c r="Q79" s="170">
+      <c r="Q79" s="107">
         <v>681.32565393551567</v>
       </c>
       <c r="R79" t="str">
@@ -40450,16 +40424,16 @@
       <c r="M80" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="N80" s="174">
+      <c r="N80" s="111">
         <v>37149.333128699305</v>
       </c>
-      <c r="O80" s="174">
+      <c r="O80" s="111">
         <v>37149.333128699305</v>
       </c>
-      <c r="P80" s="174">
+      <c r="P80" s="111">
         <v>37149.333128699305</v>
       </c>
-      <c r="Q80" s="174">
+      <c r="Q80" s="111">
         <v>37149.333128699305</v>
       </c>
       <c r="R80" t="str">
@@ -40495,16 +40469,16 @@
       <c r="M81" s="103" t="s">
         <v>273</v>
       </c>
-      <c r="N81" s="179">
+      <c r="N81" s="156">
         <v>123831110.42899768</v>
       </c>
-      <c r="O81" s="179">
+      <c r="O81" s="156">
         <v>123831110.42899768</v>
       </c>
-      <c r="P81" s="179">
+      <c r="P81" s="156">
         <v>123831110.42899768</v>
       </c>
-      <c r="Q81" s="179">
+      <c r="Q81" s="156">
         <v>123831110.42899768</v>
       </c>
       <c r="R81" t="str">
@@ -40540,16 +40514,16 @@
       <c r="M82" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="N82" s="174">
+      <c r="N82" s="111">
         <v>87000</v>
       </c>
-      <c r="O82" s="174">
+      <c r="O82" s="111">
         <v>87000</v>
       </c>
-      <c r="P82" s="174">
+      <c r="P82" s="111">
         <v>87000</v>
       </c>
-      <c r="Q82" s="174">
+      <c r="Q82" s="111">
         <v>87000</v>
       </c>
       <c r="R82" t="str">
@@ -40585,16 +40559,16 @@
       <c r="M83" s="103" t="s">
         <v>273</v>
       </c>
-      <c r="N83" s="179">
+      <c r="N83" s="156">
         <v>290000000</v>
       </c>
-      <c r="O83" s="179">
+      <c r="O83" s="156">
         <v>290000000</v>
       </c>
-      <c r="P83" s="179">
+      <c r="P83" s="156">
         <v>290000000</v>
       </c>
-      <c r="Q83" s="179">
+      <c r="Q83" s="156">
         <v>290000000</v>
       </c>
       <c r="R83" t="str">
@@ -40636,16 +40610,16 @@
       <c r="M84" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="N84" s="174">
+      <c r="N84" s="111">
         <v>14636.622779298261</v>
       </c>
-      <c r="O84" s="174">
+      <c r="O84" s="111">
         <v>5087.1057121717786</v>
       </c>
-      <c r="P84" s="174">
+      <c r="P84" s="111">
         <v>2768.4830316768875</v>
       </c>
-      <c r="Q84" s="174">
+      <c r="Q84" s="111">
         <v>1774.9582977160969</v>
       </c>
       <c r="R84" t="str">
@@ -40686,16 +40660,16 @@
       <c r="M85" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="N85" s="174">
+      <c r="N85" s="111">
         <v>4797.9387029107638</v>
       </c>
-      <c r="O85" s="174">
+      <c r="O85" s="111">
         <v>2010.5727094753945</v>
       </c>
-      <c r="P85" s="174">
+      <c r="P85" s="111">
         <v>1058.7224915491406</v>
       </c>
-      <c r="Q85" s="174">
+      <c r="Q85" s="111">
         <v>594.89447044033909</v>
       </c>
       <c r="R85" t="str">
@@ -40734,16 +40708,16 @@
       <c r="M86" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="N86" s="174">
+      <c r="N86" s="111">
         <v>5169.2082946490964</v>
       </c>
-      <c r="O86" s="174">
+      <c r="O86" s="111">
         <v>2212.1093218994611</v>
       </c>
-      <c r="P86" s="174">
+      <c r="P86" s="111">
         <v>1238.3066227426382</v>
       </c>
-      <c r="Q86" s="174">
+      <c r="Q86" s="111">
         <v>800.4072256196913</v>
       </c>
       <c r="R86" t="str">
@@ -40782,16 +40756,16 @@
       <c r="M87" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="N87" s="174">
+      <c r="N87" s="111">
         <v>5169.2082946490964</v>
       </c>
-      <c r="O87" s="174">
+      <c r="O87" s="111">
         <v>2212.1093218994611</v>
       </c>
-      <c r="P87" s="174">
+      <c r="P87" s="111">
         <v>1238.3066227426382</v>
       </c>
-      <c r="Q87" s="174">
+      <c r="Q87" s="111">
         <v>800.4072256196913</v>
       </c>
       <c r="R87" t="str">
@@ -40833,16 +40807,16 @@
       <c r="M88" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="N88" s="172">
+      <c r="N88" s="109">
         <v>1.8</v>
       </c>
-      <c r="O88" s="172">
+      <c r="O88" s="109">
         <v>2.1031001583544837</v>
       </c>
-      <c r="P88" s="172">
+      <c r="P88" s="109">
         <v>2.5046502375317257</v>
       </c>
-      <c r="Q88" s="172">
+      <c r="Q88" s="109">
         <v>2.9062003167089676</v>
       </c>
       <c r="R88" t="str">
@@ -40884,16 +40858,16 @@
       <c r="M89" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="N89" s="170">
+      <c r="N89" s="107">
         <v>1483.8020595773849</v>
       </c>
-      <c r="O89" s="170">
+      <c r="O89" s="107">
         <v>100.21145636043828</v>
       </c>
-      <c r="P89" s="170">
+      <c r="P89" s="107">
         <v>20.094755292310523</v>
       </c>
-      <c r="Q89" s="170">
+      <c r="Q89" s="107">
         <v>6.3920006148981718</v>
       </c>
       <c r="R89" t="str">
@@ -40934,16 +40908,16 @@
       <c r="M90" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N90" s="170">
+      <c r="N90" s="107">
         <v>549.79614201309175</v>
       </c>
-      <c r="O90" s="170">
+      <c r="O90" s="107">
         <v>572.34578129959584</v>
       </c>
-      <c r="P90" s="170">
+      <c r="P90" s="107">
         <v>577.93880888131434</v>
       </c>
-      <c r="Q90" s="170">
+      <c r="Q90" s="107">
         <v>579.62119250410046</v>
       </c>
       <c r="R90" t="str">
@@ -40984,16 +40958,16 @@
       <c r="M91" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N91" s="170">
+      <c r="N91" s="107">
         <v>431.02794916761809</v>
       </c>
-      <c r="O91" s="170">
+      <c r="O91" s="107">
         <v>330.74852994509934</v>
       </c>
-      <c r="P91" s="170">
+      <c r="P91" s="107">
         <v>305.87604526965976</v>
       </c>
-      <c r="Q91" s="170">
+      <c r="Q91" s="107">
         <v>298.39439776040422</v>
       </c>
       <c r="R91" t="str">
@@ -41033,16 +41007,16 @@
       <c r="M92" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N92" s="171">
+      <c r="N92" s="108">
         <v>-916.2922784530399</v>
       </c>
-      <c r="O92" s="171">
+      <c r="O92" s="108">
         <v>-916.2922784530399</v>
       </c>
-      <c r="P92" s="171">
+      <c r="P92" s="108">
         <v>-916.2922784530399</v>
       </c>
-      <c r="Q92" s="171">
+      <c r="Q92" s="108">
         <v>-916.2922784530399</v>
       </c>
       <c r="R92" t="str">
@@ -41084,16 +41058,16 @@
       <c r="M93" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N93" s="170">
+      <c r="N93" s="107">
         <v>328.06573272173364</v>
       </c>
-      <c r="O93" s="170">
+      <c r="O93" s="107">
         <v>1</v>
       </c>
-      <c r="P93" s="170">
+      <c r="P93" s="107">
         <v>1</v>
       </c>
-      <c r="Q93" s="170">
+      <c r="Q93" s="107">
         <v>1</v>
       </c>
       <c r="R93" t="str">
@@ -41131,16 +41105,16 @@
       <c r="M94" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N94" s="170">
+      <c r="N94" s="107">
         <v>3595</v>
       </c>
-      <c r="O94" s="170">
+      <c r="O94" s="107">
         <v>3595</v>
       </c>
-      <c r="P94" s="170">
+      <c r="P94" s="107">
         <v>3595</v>
       </c>
-      <c r="Q94" s="170">
+      <c r="Q94" s="107">
         <v>3595</v>
       </c>
       <c r="R94" t="str">
@@ -41185,16 +41159,16 @@
       <c r="M95" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N95" s="170">
+      <c r="N95" s="107">
         <v>2068.2520235998149</v>
       </c>
-      <c r="O95" s="170">
+      <c r="O95" s="107">
         <v>2068.2520235998149</v>
       </c>
-      <c r="P95" s="170">
+      <c r="P95" s="107">
         <v>2068.2520235998149</v>
       </c>
-      <c r="Q95" s="170">
+      <c r="Q95" s="107">
         <v>2068.2520235998149</v>
       </c>
       <c r="R95" t="str">
@@ -41235,16 +41209,16 @@
       <c r="M96" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N96" s="171">
+      <c r="N96" s="108">
         <v>2068.2520235998149</v>
       </c>
-      <c r="O96" s="171">
+      <c r="O96" s="108">
         <v>2068.2520235998149</v>
       </c>
-      <c r="P96" s="171">
+      <c r="P96" s="108">
         <v>2068.2520235998149</v>
       </c>
-      <c r="Q96" s="171">
+      <c r="Q96" s="108">
         <v>2068.2520235998149</v>
       </c>
       <c r="R96" t="str">
@@ -41289,16 +41263,16 @@
       <c r="M97" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="N97" s="172">
+      <c r="N97" s="109">
         <v>2.4286136732398829</v>
       </c>
-      <c r="O97" s="172">
+      <c r="O97" s="109">
         <v>1.3446317340090279</v>
       </c>
-      <c r="P97" s="172">
+      <c r="P97" s="109">
         <v>1.176771554766646</v>
       </c>
-      <c r="Q97" s="172">
+      <c r="Q97" s="109">
         <v>1.1112353497098411</v>
       </c>
       <c r="R97" t="str">
@@ -41330,16 +41304,16 @@
       <c r="M98" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="N98" s="170">
+      <c r="N98" s="107">
         <v>194.0980661142894</v>
       </c>
-      <c r="O98" s="170">
+      <c r="O98" s="107">
         <v>194.0980661142894</v>
       </c>
-      <c r="P98" s="170">
+      <c r="P98" s="107">
         <v>194.0980661142894</v>
       </c>
-      <c r="Q98" s="170">
+      <c r="Q98" s="107">
         <v>194.0980661142894</v>
       </c>
       <c r="R98" t="str">
@@ -41381,16 +41355,16 @@
       <c r="M99" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="N99" s="170">
+      <c r="N99" s="107">
         <v>10245.332978022379</v>
       </c>
-      <c r="O99" s="170">
+      <c r="O99" s="107">
         <v>14760.990385286221</v>
       </c>
-      <c r="P99" s="170">
+      <c r="P99" s="107">
         <v>15661.360422673919</v>
       </c>
-      <c r="Q99" s="170">
+      <c r="Q99" s="107">
         <v>15956.782644600848</v>
       </c>
       <c r="R99" t="str">
@@ -41432,16 +41406,16 @@
       <c r="M100" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N100" s="174">
+      <c r="N100" s="111">
         <v>823.89401242504141</v>
       </c>
-      <c r="O100" s="174">
+      <c r="O100" s="111">
         <v>1261.6364319138888</v>
       </c>
-      <c r="P100" s="174">
+      <c r="P100" s="111">
         <v>1355.5804720029787</v>
       </c>
-      <c r="Q100" s="174">
+      <c r="Q100" s="111">
         <v>1386.9263696642993</v>
       </c>
       <c r="R100" t="str">
@@ -41486,16 +41460,16 @@
       <c r="M101" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="N101" s="172">
+      <c r="N101" s="109">
         <v>0.41430870717841117</v>
       </c>
-      <c r="O101" s="172">
+      <c r="O101" s="109">
         <v>0.4403495083656086</v>
       </c>
-      <c r="P101" s="172">
+      <c r="P101" s="109">
         <v>0.44593813300367485</v>
       </c>
-      <c r="Q101" s="172">
+      <c r="Q101" s="109">
         <v>0.44780286498460981</v>
       </c>
       <c r="R101" t="str">
@@ -41534,16 +41508,16 @@
       <c r="M102" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="N102" s="172">
+      <c r="N102" s="109">
         <v>0.41430870717841117</v>
       </c>
-      <c r="O102" s="172">
+      <c r="O102" s="109">
         <v>0.4403495083656086</v>
       </c>
-      <c r="P102" s="172">
+      <c r="P102" s="109">
         <v>0.44593813300367485</v>
       </c>
-      <c r="Q102" s="172">
+      <c r="Q102" s="109">
         <v>0.44780286498460981</v>
       </c>
       <c r="R102" t="str">
@@ -41575,16 +41549,16 @@
       <c r="M103" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N103" s="173">
+      <c r="N103" s="110">
         <v>14795</v>
       </c>
-      <c r="O103" s="173">
+      <c r="O103" s="110">
         <v>14795</v>
       </c>
-      <c r="P103" s="173">
+      <c r="P103" s="110">
         <v>14795</v>
       </c>
-      <c r="Q103" s="173">
+      <c r="Q103" s="110">
         <v>14795</v>
       </c>
       <c r="R103" t="str">
@@ -41626,16 +41600,16 @@
       <c r="M104" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N104" s="170">
+      <c r="N104" s="107">
         <v>-123.29166666666667</v>
       </c>
-      <c r="O104" s="170">
+      <c r="O104" s="107">
         <v>-123.29166666666667</v>
       </c>
-      <c r="P104" s="170">
+      <c r="P104" s="107">
         <v>-123.29166666666667</v>
       </c>
-      <c r="Q104" s="170">
+      <c r="Q104" s="107">
         <v>-123.29166666666667</v>
       </c>
       <c r="R104" t="str">
@@ -41657,10 +41631,10 @@
         <v>42</v>
       </c>
       <c r="M105" s="103"/>
-      <c r="N105" s="169"/>
-      <c r="O105" s="169"/>
-      <c r="P105" s="169"/>
-      <c r="Q105" s="169"/>
+      <c r="N105" s="104"/>
+      <c r="O105" s="104"/>
+      <c r="P105" s="104"/>
+      <c r="Q105" s="104"/>
       <c r="R105" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41700,16 +41674,16 @@
       <c r="M106" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N106" s="170">
+      <c r="N106" s="107">
         <v>-451.35739938840032</v>
       </c>
-      <c r="O106" s="170">
+      <c r="O106" s="107">
         <v>-124.29166666666667</v>
       </c>
-      <c r="P106" s="170">
+      <c r="P106" s="107">
         <v>-124.29166666666667</v>
       </c>
-      <c r="Q106" s="170">
+      <c r="Q106" s="107">
         <v>-124.29166666666667</v>
       </c>
       <c r="R106" t="str">
@@ -41751,16 +41725,16 @@
       <c r="M107" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="N107" s="172">
+      <c r="N107" s="109">
         <v>-1.1758800051212106E-2</v>
       </c>
-      <c r="O107" s="172">
+      <c r="O107" s="109">
         <v>-4.4596573916353723E-2</v>
       </c>
-      <c r="P107" s="172">
+      <c r="P107" s="109">
         <v>-4.1273157321486523E-2</v>
       </c>
-      <c r="Q107" s="172">
+      <c r="Q107" s="109">
         <v>-3.9991657172324724E-2</v>
       </c>
       <c r="R107" t="str">
@@ -41802,16 +41776,16 @@
       <c r="M108" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N108" s="171">
+      <c r="N108" s="108">
         <v>2877.9288296773643</v>
       </c>
-      <c r="O108" s="171">
+      <c r="O108" s="108">
         <v>2876.0222982869582</v>
       </c>
-      <c r="P108" s="171">
+      <c r="P108" s="108">
         <v>2876.0206365786607</v>
       </c>
-      <c r="Q108" s="171">
+      <c r="Q108" s="108">
         <v>2876.0199958285862</v>
       </c>
       <c r="R108" t="str">
@@ -41850,16 +41824,16 @@
       <c r="M109" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="N109" s="175">
+      <c r="N109" s="113">
         <v>4.6292104213107588E-2</v>
       </c>
-      <c r="O109" s="175">
+      <c r="O109" s="113">
         <v>4.3011558860298965E-7</v>
       </c>
-      <c r="P109" s="175">
+      <c r="P109" s="113">
         <v>4.3011558860298965E-7</v>
       </c>
-      <c r="Q109" s="175">
+      <c r="Q109" s="113">
         <v>4.3011558860298965E-7</v>
       </c>
       <c r="R109" t="str">
@@ -41898,16 +41872,16 @@
       <c r="M110" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="N110" s="175">
+      <c r="N110" s="113">
         <v>4.6292104213107588E-2</v>
       </c>
-      <c r="O110" s="175">
+      <c r="O110" s="113">
         <v>4.3011558860298965E-7</v>
       </c>
-      <c r="P110" s="175">
+      <c r="P110" s="113">
         <v>4.3011558860298965E-7</v>
       </c>
-      <c r="Q110" s="175">
+      <c r="Q110" s="113">
         <v>4.3011558860298965E-7</v>
       </c>
       <c r="R110" t="str">
@@ -41943,10 +41917,10 @@
       <c r="M111" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="N111" s="177"/>
-      <c r="O111" s="177"/>
-      <c r="P111" s="177"/>
-      <c r="Q111" s="177"/>
+      <c r="N111" s="128"/>
+      <c r="O111" s="128"/>
+      <c r="P111" s="128"/>
+      <c r="Q111" s="128"/>
       <c r="R111" t="str">
         <f t="shared" si="6"/>
         <v>Bending moment L-Flange as a function of external force Z</v>
@@ -41986,16 +41960,16 @@
       <c r="M112" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="N112" s="170">
+      <c r="N112" s="107">
         <v>112.77695050276786</v>
       </c>
-      <c r="O112" s="170">
+      <c r="O112" s="107">
         <v>112.77695050276786</v>
       </c>
-      <c r="P112" s="170">
+      <c r="P112" s="107">
         <v>112.77695050276786</v>
       </c>
-      <c r="Q112" s="170">
+      <c r="Q112" s="107">
         <v>112.77695050276786</v>
       </c>
       <c r="R112" t="str">
@@ -42034,16 +42008,16 @@
       <c r="M113" s="103" t="s">
         <v>268</v>
       </c>
-      <c r="N113" s="176">
+      <c r="N113" s="114">
         <v>1.6641565715404047E-9</v>
       </c>
-      <c r="O113" s="176">
+      <c r="O113" s="114">
         <v>1.6641565715404047E-9</v>
       </c>
-      <c r="P113" s="176">
+      <c r="P113" s="114">
         <v>1.6641565715404047E-9</v>
       </c>
-      <c r="Q113" s="176">
+      <c r="Q113" s="114">
         <v>1.6641565715404047E-9</v>
       </c>
       <c r="R113" t="str">
@@ -42079,10 +42053,10 @@
       <c r="M114" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="N114" s="177"/>
-      <c r="O114" s="177"/>
-      <c r="P114" s="177"/>
-      <c r="Q114" s="177"/>
+      <c r="N114" s="128"/>
+      <c r="O114" s="128"/>
+      <c r="P114" s="128"/>
+      <c r="Q114" s="128"/>
       <c r="R114" t="str">
         <f t="shared" si="6"/>
         <v>Bending moment for T-Flange as a function of external force Z</v>
@@ -42116,10 +42090,10 @@
       <c r="M115" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="N115" s="177"/>
-      <c r="O115" s="177"/>
-      <c r="P115" s="177"/>
-      <c r="Q115" s="177"/>
+      <c r="N115" s="128"/>
+      <c r="O115" s="128"/>
+      <c r="P115" s="128"/>
+      <c r="Q115" s="128"/>
       <c r="R115" t="str">
         <f t="shared" si="6"/>
         <v>Intermediate values as function of Z</v>
@@ -42153,10 +42127,10 @@
       <c r="M116" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="N116" s="177"/>
-      <c r="O116" s="177"/>
-      <c r="P116" s="177"/>
-      <c r="Q116" s="177"/>
+      <c r="N116" s="128"/>
+      <c r="O116" s="128"/>
+      <c r="P116" s="128"/>
+      <c r="Q116" s="128"/>
       <c r="R116" t="str">
         <f t="shared" si="6"/>
         <v>Intermediate values as function of Z</v>
@@ -42199,16 +42173,16 @@
       <c r="M117" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="N117" s="172">
+      <c r="N117" s="109">
         <v>8.2481369627118967E-2</v>
       </c>
-      <c r="O117" s="172">
+      <c r="O117" s="109">
         <v>7.6216530663626325E-2</v>
       </c>
-      <c r="P117" s="172">
+      <c r="P117" s="109">
         <v>0.11725529950692204</v>
       </c>
-      <c r="Q117" s="172">
+      <c r="Q117" s="109">
         <v>0.13574413986533135</v>
       </c>
       <c r="R117" t="str">
@@ -42242,16 +42216,16 @@
       <c r="M118" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="N118" s="176">
+      <c r="N118" s="114">
         <v>0</v>
       </c>
-      <c r="O118" s="176">
+      <c r="O118" s="114">
         <v>0</v>
       </c>
-      <c r="P118" s="176">
+      <c r="P118" s="114">
         <v>0</v>
       </c>
-      <c r="Q118" s="176">
+      <c r="Q118" s="114">
         <v>0</v>
       </c>
       <c r="R118" t="str">
@@ -42296,16 +42270,16 @@
       <c r="M119" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="N119" s="171">
+      <c r="N119" s="108">
         <v>-28.214703368481402</v>
       </c>
-      <c r="O119" s="171">
+      <c r="O119" s="108">
         <v>-26.561584685631779</v>
       </c>
-      <c r="P119" s="171">
+      <c r="P119" s="108">
         <v>-30.365536366668998</v>
       </c>
-      <c r="Q119" s="171">
+      <c r="Q119" s="108">
         <v>-32.162160737304482</v>
       </c>
       <c r="R119" t="str">
@@ -42339,16 +42313,16 @@
       <c r="M120" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="N120" s="171">
+      <c r="N120" s="108">
         <v>0</v>
       </c>
-      <c r="O120" s="171">
+      <c r="O120" s="108">
         <v>0</v>
       </c>
-      <c r="P120" s="171">
+      <c r="P120" s="108">
         <v>0</v>
       </c>
-      <c r="Q120" s="171">
+      <c r="Q120" s="108">
         <v>0</v>
       </c>
       <c r="R120" t="str">
@@ -42379,16 +42353,16 @@
       <c r="M121" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="N121" s="172">
+      <c r="N121" s="109">
         <v>-123.19166666666668</v>
       </c>
-      <c r="O121" s="172">
+      <c r="O121" s="109">
         <v>-123.19166666666668</v>
       </c>
-      <c r="P121" s="172">
+      <c r="P121" s="109">
         <v>-123.19166666666668</v>
       </c>
-      <c r="Q121" s="172">
+      <c r="Q121" s="109">
         <v>-123.19166666666668</v>
       </c>
     </row>
@@ -42418,16 +42392,16 @@
       <c r="M122" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="N122" s="175">
+      <c r="N122" s="113">
         <v>0</v>
       </c>
-      <c r="O122" s="175">
+      <c r="O122" s="113">
         <v>0</v>
       </c>
-      <c r="P122" s="175">
+      <c r="P122" s="113">
         <v>0</v>
       </c>
-      <c r="Q122" s="175">
+      <c r="Q122" s="113">
         <v>0</v>
       </c>
       <c r="R122" s="152" t="s">
@@ -42460,16 +42434,16 @@
       <c r="M123" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="N123" s="172">
+      <c r="N123" s="109">
         <v>-40.182316327404109</v>
       </c>
-      <c r="O123" s="172">
+      <c r="O123" s="109">
         <v>-72.575501817309217</v>
       </c>
-      <c r="P123" s="172">
+      <c r="P123" s="109">
         <v>-82.928009654801173</v>
       </c>
-      <c r="Q123" s="172">
+      <c r="Q123" s="109">
         <v>-87.818771136704058</v>
       </c>
       <c r="R123" s="152" t="s">
@@ -42502,16 +42476,16 @@
       <c r="M124" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="N124" s="175">
+      <c r="N124" s="113">
         <v>0</v>
       </c>
-      <c r="O124" s="175">
+      <c r="O124" s="113">
         <v>0</v>
       </c>
-      <c r="P124" s="175">
+      <c r="P124" s="113">
         <v>0</v>
       </c>
-      <c r="Q124" s="175">
+      <c r="Q124" s="113">
         <v>0</v>
       </c>
       <c r="R124" s="152" t="s">
@@ -42544,16 +42518,16 @@
       <c r="M125" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="N125" s="175">
+      <c r="N125" s="113">
         <v>-1.3073606871430133E-3</v>
       </c>
-      <c r="O125" s="175">
+      <c r="O125" s="113">
         <v>-4.9583126905451864E-3</v>
       </c>
-      <c r="P125" s="175">
+      <c r="P125" s="113">
         <v>-4.5888103447101454E-3</v>
       </c>
-      <c r="Q125" s="175">
+      <c r="Q125" s="113">
         <v>-4.4463312730118956E-3</v>
       </c>
       <c r="R125" s="152" t="s">
@@ -42586,16 +42560,16 @@
       <c r="M126" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="N126" s="172">
+      <c r="N126" s="109">
         <v>-40.149725060359245</v>
       </c>
-      <c r="O126" s="172">
+      <c r="O126" s="109">
         <v>-72.516636929049142</v>
       </c>
-      <c r="P126" s="172">
+      <c r="P126" s="109">
         <v>-82.860748004523572</v>
       </c>
-      <c r="Q126" s="172">
+      <c r="Q126" s="109">
         <v>-87.747542664001102</v>
       </c>
       <c r="R126" s="152" t="s">
@@ -42628,16 +42602,16 @@
       <c r="M127" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="N127" s="175">
+      <c r="N127" s="113">
         <v>-3.139330447909588E-3</v>
       </c>
-      <c r="O127" s="175">
+      <c r="O127" s="113">
         <v>-8.267016000381433E-3</v>
       </c>
-      <c r="P127" s="175">
+      <c r="P127" s="113">
         <v>-8.3695316491573871E-3</v>
       </c>
-      <c r="Q127" s="175">
+      <c r="Q127" s="113">
         <v>-8.4500432100554114E-3</v>
       </c>
       <c r="R127" s="152" t="s">
@@ -42667,16 +42641,16 @@
       <c r="M128" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="N128" s="171">
+      <c r="N128" s="108">
         <v>-14.685047887174937</v>
       </c>
-      <c r="O128" s="171">
+      <c r="O128" s="108">
         <v>-26.523476420299968</v>
       </c>
-      <c r="P128" s="171">
+      <c r="P128" s="108">
         <v>-30.306908716915537</v>
       </c>
-      <c r="Q128" s="171">
+      <c r="Q128" s="108">
         <v>-32.094288667371821</v>
       </c>
     </row>
@@ -42703,16 +42677,16 @@
       <c r="M129" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="N129" s="171">
+      <c r="N129" s="108">
         <v>2485.9184598735337</v>
       </c>
-      <c r="O129" s="171">
+      <c r="O129" s="108">
         <v>2684.5113934582105</v>
       </c>
-      <c r="P129" s="171">
+      <c r="P129" s="108">
         <v>2747.9795232612087</v>
       </c>
-      <c r="Q129" s="171">
+      <c r="Q129" s="108">
         <v>2777.9633194042804</v>
       </c>
     </row>
@@ -42739,16 +42713,16 @@
       <c r="M130" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="N130" s="171">
+      <c r="N130" s="108">
         <v>83.905572770886522</v>
       </c>
-      <c r="O130" s="171">
+      <c r="O130" s="108">
         <v>29.914286199250732</v>
       </c>
-      <c r="P130" s="171">
+      <c r="P130" s="108">
         <v>29.914262942846175</v>
       </c>
-      <c r="Q130" s="171">
+      <c r="Q130" s="108">
         <v>29.914253863045033</v>
       </c>
     </row>
@@ -42772,16 +42746,16 @@
       <c r="L131" s="112" t="s">
         <v>338</v>
       </c>
-      <c r="N131" s="179">
+      <c r="N131" s="156">
         <v>4.8303428209220986E-4</v>
       </c>
-      <c r="O131" s="179">
+      <c r="O131" s="156">
         <v>5.2970878113168499E-4</v>
       </c>
-      <c r="P131" s="179">
+      <c r="P131" s="156">
         <v>5.2498498939713804E-4</v>
       </c>
-      <c r="Q131" s="179">
+      <c r="Q131" s="156">
         <v>5.2316350850340257E-4</v>
       </c>
       <c r="R131" t="s">
@@ -42808,16 +42782,16 @@
       <c r="L132" s="112" t="s">
         <v>339</v>
       </c>
-      <c r="N132" s="179">
+      <c r="N132" s="156">
         <v>0.20154126957315008</v>
       </c>
-      <c r="O132" s="179">
+      <c r="O132" s="156">
         <v>0.20678091672532581</v>
       </c>
-      <c r="P132" s="179">
+      <c r="P132" s="156">
         <v>0.24665534964154662</v>
       </c>
-      <c r="Q132" s="179">
+      <c r="Q132" s="156">
         <v>0.26469522533108131</v>
       </c>
       <c r="R132" t="s">
@@ -42844,16 +42818,16 @@
       <c r="L133" s="112" t="s">
         <v>340</v>
       </c>
-      <c r="N133" s="179">
+      <c r="N133" s="156">
         <v>2.8207866856430428</v>
       </c>
-      <c r="O133" s="179">
+      <c r="O133" s="156">
         <v>-9.0811283791923643</v>
       </c>
-      <c r="P133" s="179">
+      <c r="P133" s="156">
         <v>-7.8765698051197433</v>
       </c>
-      <c r="Q133" s="179">
+      <c r="Q133" s="156">
         <v>-7.4120953847063902</v>
       </c>
       <c r="R133" t="s">
@@ -42992,23 +42966,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E5A98ECA1EC044BB77E0D7F6ADEF7BC" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5e88349ac6f5efd4674595e2a92e1fa9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2278e7f3-5df8-4100-b836-5320443b7544" xmlns:ns4="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bde21b231255bb48ab8a6ec7dd561648" ns3:_="" ns4:_="">
     <xsd:import namespace="2278e7f3-5df8-4100-b836-5320443b7544"/>
@@ -43261,10 +43218,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A7863D2-B6F1-4C67-B9E9-1F3A9276C4FF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
+    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -43287,20 +43272,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A7863D2-B6F1-4C67-B9E9-1F3A9276C4FF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
-    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tests/validation/BnB_ReferenceFlange-Results-Tilt-1deg.xlsx
+++ b/tests/validation/BnB_ReferenceFlange-Results-Tilt-1deg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\tests\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285C4F7D-1CF7-47CB-B59A-72643EC36E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4CE934-F511-4280-B732-5046E508B71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-9165" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
+    <workbookView xWindow="-19395" yWindow="-4920" windowWidth="13830" windowHeight="7110" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap30deg" sheetId="2" r:id="rId1"/>
@@ -5485,15 +5485,6 @@
     <xf numFmtId="172" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5521,8 +5512,17 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="40">
@@ -20102,32 +20102,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
       <c r="H4" s="47" t="s">
         <v>13</v>
       </c>
@@ -20143,12 +20143,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="169"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="166"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -20156,12 +20156,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="169"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="166"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -20169,12 +20169,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="169"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="166"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -20182,12 +20182,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="166"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -20195,12 +20195,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="166"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -20248,112 +20248,112 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="167" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="159" t="s">
+      <c r="C13" s="167"/>
+      <c r="D13" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="167" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="159" t="s">
+      <c r="C14" s="167"/>
+      <c r="D14" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="167" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="159" t="s">
+      <c r="C15" s="167"/>
+      <c r="D15" s="169" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="159" t="str">
+      <c r="C16" s="167"/>
+      <c r="D16" s="169" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size and tilt 1 deg</v>
       </c>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="167" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="160"/>
-      <c r="D17" s="158">
+      <c r="C17" s="167"/>
+      <c r="D17" s="170">
         <v>0.6</v>
       </c>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="160"/>
-      <c r="D18" s="170">
+      <c r="C18" s="167"/>
+      <c r="D18" s="168">
         <v>45459</v>
       </c>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="168"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -20541,16 +20541,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="163"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="160"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -24513,6 +24513,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B18:C18"/>
@@ -24523,16 +24533,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="26" priority="5" stopIfTrue="1" operator="between">
@@ -24618,32 +24618,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
       <c r="H4" s="47" t="s">
         <v>13</v>
       </c>
@@ -24659,12 +24659,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="169"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="166"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -24672,12 +24672,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="169"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="166"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -24685,12 +24685,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="169"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="166"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -24698,12 +24698,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="166"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -24711,12 +24711,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="166"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -24764,117 +24764,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="167" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="159" t="str">
+      <c r="C13" s="167"/>
+      <c r="D13" s="169" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="167" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="159" t="str">
+      <c r="C14" s="167"/>
+      <c r="D14" s="169" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="167" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="159" t="str">
+      <c r="C15" s="167"/>
+      <c r="D15" s="169" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="159" t="str">
+      <c r="C16" s="167"/>
+      <c r="D16" s="169" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size and tilt 1 deg</v>
       </c>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="167" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="160"/>
-      <c r="D17" s="159">
+      <c r="C17" s="167"/>
+      <c r="D17" s="169">
         <f>Gap30deg!D17</f>
         <v>0.6</v>
       </c>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="160"/>
-      <c r="D18" s="170">
+      <c r="C18" s="167"/>
+      <c r="D18" s="168">
         <f>Gap30deg!D18</f>
         <v>45459</v>
       </c>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="168"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -25062,16 +25062,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="163"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="160"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -29102,32 +29102,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
       <c r="H4" s="47" t="s">
         <v>13</v>
       </c>
@@ -29143,12 +29143,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="169"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="166"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -29156,12 +29156,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="169"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="166"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -29169,12 +29169,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="169"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="166"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -29182,12 +29182,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="166"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -29195,12 +29195,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="166"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -29248,117 +29248,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="167" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="159" t="str">
+      <c r="C13" s="167"/>
+      <c r="D13" s="169" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="167" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="159" t="str">
+      <c r="C14" s="167"/>
+      <c r="D14" s="169" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="167" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="159" t="str">
+      <c r="C15" s="167"/>
+      <c r="D15" s="169" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="159" t="str">
+      <c r="C16" s="167"/>
+      <c r="D16" s="169" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size and tilt 1 deg</v>
       </c>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="167" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="160"/>
-      <c r="D17" s="159">
+      <c r="C17" s="167"/>
+      <c r="D17" s="169">
         <f>Gap30deg!D17</f>
         <v>0.6</v>
       </c>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="160"/>
-      <c r="D18" s="170">
+      <c r="C18" s="167"/>
+      <c r="D18" s="168">
         <f>Gap30deg!D18</f>
         <v>45459</v>
       </c>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="168"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -29546,16 +29546,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="163"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="160"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -33539,7 +33539,7 @@
   </sheetPr>
   <dimension ref="A1:DJ180"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J149" sqref="J149"/>
     </sheetView>
@@ -33586,32 +33586,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
       <c r="H4" s="47" t="s">
         <v>13</v>
       </c>
@@ -33627,12 +33627,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="169"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="166"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -33640,12 +33640,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="169"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="166"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -33653,12 +33653,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="169"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="166"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -33666,12 +33666,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="166"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -33679,12 +33679,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="166"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -33732,117 +33732,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="167" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="159" t="str">
+      <c r="C13" s="167"/>
+      <c r="D13" s="169" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="167" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="159" t="str">
+      <c r="C14" s="167"/>
+      <c r="D14" s="169" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="167" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="159" t="str">
+      <c r="C15" s="167"/>
+      <c r="D15" s="169" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="159" t="str">
+      <c r="C16" s="167"/>
+      <c r="D16" s="169" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size and tilt 1 deg</v>
       </c>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="167" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="160"/>
-      <c r="D17" s="159">
+      <c r="C17" s="167"/>
+      <c r="D17" s="169">
         <f>Gap30deg!D17</f>
         <v>0.6</v>
       </c>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="160"/>
-      <c r="D18" s="170">
+      <c r="C18" s="167"/>
+      <c r="D18" s="168">
         <f>Gap30deg!D18</f>
         <v>45459</v>
       </c>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="168"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -34030,16 +34030,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="163"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="160"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -38021,8 +38021,8 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="B2:R133"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -38054,19 +38054,19 @@
     </row>
     <row r="21" spans="2:18" ht="18">
       <c r="G21" s="135">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="2:18">
       <c r="G22" s="136">
         <f>MATCH(gap_angle,N48:Q48,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:18">
       <c r="G23" s="136" t="str">
         <f>"Gap"&amp;gap_angle&amp;"deg"</f>
-        <v>Gap90deg</v>
+        <v>Gap120deg</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -39088,15 +39088,15 @@
       </c>
       <c r="E48" s="110" cm="1">
         <f t="array" ref="E48">INDEX(N48:Q48,case_number)</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F48" s="110" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">INDIRECT(sheet_name&amp;"!gap.angle")</f>
-        <v>90</v>
+        <v>119.99999999999999</v>
       </c>
       <c r="G48" s="118">
         <f t="shared" ref="G48:G53" ca="1" si="1">(F48-E48)/E48</f>
-        <v>0</v>
+        <v>-1.1842378929335003E-16</v>
       </c>
       <c r="I48" s="141"/>
       <c r="J48" s="142"/>
@@ -39134,15 +39134,15 @@
       </c>
       <c r="E49" s="109" cm="1">
         <f t="array" ref="E49">INDEX(N49:Q49,case_number)</f>
-        <v>5.8904862254808625</v>
+        <v>7.8539816339744828</v>
       </c>
       <c r="F49" s="109" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">INDIRECT(sheet_name&amp;"!gap.L")/1000</f>
-        <v>5.8904862254808616</v>
+        <v>7.8539816339744819</v>
       </c>
       <c r="G49" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5078185156567782E-16</v>
+        <v>-1.1308638867425837E-16</v>
       </c>
       <c r="H49" t="s">
         <v>316</v>
@@ -39278,15 +39278,15 @@
       </c>
       <c r="E52" s="109" cm="1">
         <f t="array" ref="E52">INDEX(N52:Q52,case_number)</f>
-        <v>1.3643968401892383</v>
+        <v>2.1533230192475301</v>
       </c>
       <c r="F52" s="109" cm="1">
         <f t="array" aca="1" ref="F52" ca="1">INDIRECT(sheet_name&amp;"!gap.k_mean")</f>
-        <v>1.3643968401892375</v>
+        <v>2.1533230192475297</v>
       </c>
       <c r="G52" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.5096780756025291E-16</v>
+        <v>-2.0623436701347657E-16</v>
       </c>
       <c r="I52" s="144"/>
       <c r="J52" s="142"/>
@@ -39330,15 +39330,15 @@
       </c>
       <c r="E53" s="109" cm="1">
         <f t="array" ref="E53">INDEX(N53:Q53,case_number)</f>
-        <v>0.4993626397773579</v>
+        <v>0.44426272750754409</v>
       </c>
       <c r="F53" s="109" cm="1">
         <f t="array" aca="1" ref="F53" ca="1">INDIRECT(sheet_name&amp;"!gap.COV")</f>
-        <v>0.4993626397773579</v>
+        <v>0.44426272750754392</v>
       </c>
       <c r="G53" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-3.7485353459219818E-16</v>
       </c>
       <c r="I53" s="144"/>
       <c r="J53" s="142"/>
@@ -39518,7 +39518,7 @@
       <c r="D57" s="103"/>
       <c r="E57" s="109" cm="1">
         <f t="array" ref="E57">INDEX(N57:Q57,case_number)</f>
-        <v>0.47184092472685457</v>
+        <v>0.42441366570439232</v>
       </c>
       <c r="F57" s="109" t="s">
         <v>85</v>
@@ -39562,7 +39562,7 @@
       <c r="D58" s="103"/>
       <c r="E58" s="109" cm="1">
         <f t="array" ref="E58">INDEX(N58:Q58,case_number)</f>
-        <v>0.19939552653846943</v>
+        <v>0.67694875947348121</v>
       </c>
       <c r="F58" s="109" t="s">
         <v>85</v>
@@ -39606,7 +39606,7 @@
       <c r="D59" s="103"/>
       <c r="E59" s="109" cm="1">
         <f t="array" ref="E59">INDEX(N59:Q59,case_number)</f>
-        <v>0.97552666362167262</v>
+        <v>1.3750667981906362</v>
       </c>
       <c r="F59" s="113" t="s">
         <v>85</v>
@@ -39652,15 +39652,15 @@
       </c>
       <c r="E60" s="109" cm="1">
         <f t="array" ref="E60">INDEX(N60:Q60,case_number)</f>
-        <v>2.6525058127308667</v>
+        <v>3.9552630780086151</v>
       </c>
       <c r="F60" s="109" cm="1">
         <f t="array" aca="1" ref="F60" ca="1">INDIRECT(sheet_name&amp;"!gap.h")</f>
-        <v>2.6525058127308663</v>
+        <v>3.9552630780086138</v>
       </c>
       <c r="G60" s="118">
         <f t="shared" ref="G60:G61" ca="1" si="2">(F60-E60)/E60</f>
-        <v>-1.6742252089274559E-16</v>
+        <v>-3.3683413802678182E-16</v>
       </c>
       <c r="I60" s="144"/>
       <c r="J60" s="142"/>
@@ -39701,15 +39701,15 @@
       </c>
       <c r="E61" s="109" cm="1">
         <f t="array" ref="E61">INDEX(N61:Q61,case_number)</f>
-        <v>2.6525058127308667</v>
+        <v>3.9552630780086151</v>
       </c>
       <c r="F61" s="109" cm="1">
         <f t="array" aca="1" ref="F61" ca="1">INDIRECT(sheet_name&amp;"!gap.h")</f>
-        <v>2.6525058127308663</v>
+        <v>3.9552630780086138</v>
       </c>
       <c r="G61" s="118">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.6742252089274559E-16</v>
+        <v>-3.3683413802678182E-16</v>
       </c>
       <c r="H61" t="s">
         <v>164</v>
@@ -40074,15 +40074,15 @@
       </c>
       <c r="E71" s="107" cm="1">
         <f t="array" ref="E71">INDEX(N71:Q71,case_number)</f>
-        <v>121.69300747304081</v>
+        <v>114.91573803665135</v>
       </c>
       <c r="F71" s="107" cm="1">
         <f t="array" aca="1" ref="F71" ca="1">INDIRECT(sheet_name&amp;"!Point3.Z")</f>
-        <v>121.69361082482786</v>
+        <v>114.91611609263964</v>
       </c>
       <c r="G71" s="118">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9579823818787697E-6</v>
+        <v>3.2898538942688651E-6</v>
       </c>
       <c r="K71" s="106"/>
       <c r="L71" s="103" t="s">
@@ -40114,15 +40114,15 @@
       </c>
       <c r="E72" s="107" cm="1">
         <f t="array" ref="E72">INDEX(N72:Q72,case_number)</f>
-        <v>2876.0001053717274</v>
+        <v>2876.0001024567182</v>
       </c>
       <c r="F72" s="107" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">INDIRECT(sheet_name&amp;"!Point3.Fs")</f>
-        <v>2876.0001053683459</v>
+        <v>2876.0001024533403</v>
       </c>
       <c r="G72" s="118">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.1757653606743115E-12</v>
+        <v>-1.1745004179586916E-12</v>
       </c>
       <c r="K72" s="106"/>
       <c r="L72" s="103" t="s">
@@ -40152,7 +40152,7 @@
       <c r="D73" s="103"/>
       <c r="E73" s="107" cm="1">
         <f t="array" ref="E73">INDEX(N73:Q73,case_number)</f>
-        <v>1045097057.0864795</v>
+        <v>1019723453.7372863</v>
       </c>
       <c r="F73" s="110" t="s">
         <v>85</v>
@@ -40184,7 +40184,7 @@
       <c r="D74" s="103"/>
       <c r="E74" s="107" cm="1">
         <f t="array" ref="E74">INDEX(N74:Q74,case_number)</f>
-        <v>176143.74977970537</v>
+        <v>171270.89944331138</v>
       </c>
       <c r="F74" s="111" t="s">
         <v>85</v>
@@ -40216,7 +40216,7 @@
       <c r="D75" s="103"/>
       <c r="E75" s="107" cm="1">
         <f t="array" ref="E75">INDEX(N75:Q75,case_number)</f>
-        <v>282043.33752121392</v>
+        <v>1434991.4290897031</v>
       </c>
       <c r="F75" s="111" t="s">
         <v>85</v>
@@ -40248,15 +40248,15 @@
       <c r="D76" s="103"/>
       <c r="E76" s="146" cm="1">
         <f t="array" ref="E76">INDEX(N76:Q76,case_number)</f>
-        <v>1.6854295836480368E-4</v>
+        <v>1.6795818397194215E-4</v>
       </c>
       <c r="F76" s="146" cm="1">
         <f t="array" aca="1" ref="F76" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.2")*1000</f>
-        <v>1.6854301061371388E-4</v>
+        <v>1.6795821648681126E-4</v>
       </c>
       <c r="G76" s="118">
         <f t="shared" ref="G76:G78" ca="1" si="5">(F76-E76)/E76</f>
-        <v>3.100035189963296E-7</v>
+        <v>1.9358907281381742E-7</v>
       </c>
       <c r="K76" s="106"/>
       <c r="L76" s="105" t="s">
@@ -40284,15 +40284,15 @@
       <c r="D77" s="103"/>
       <c r="E77" s="146" cm="1">
         <f t="array" ref="E77">INDEX(N77:Q77,case_number)</f>
-        <v>2.6987286549968293E-4</v>
+        <v>1.4072358773650441E-3</v>
       </c>
       <c r="F77" s="146" cm="1">
         <f t="array" aca="1" ref="F77" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.1")</f>
-        <v>2.697712434429131E-4</v>
+        <v>1.4071726372346194E-3</v>
       </c>
       <c r="G77" s="118">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.7655529607124352E-4</v>
+        <v>-4.4939253924571871E-5</v>
       </c>
       <c r="K77" s="106"/>
       <c r="L77" s="105" t="s">
@@ -40320,15 +40320,15 @@
       <c r="D78" s="103"/>
       <c r="E78" s="108" cm="1">
         <f t="array" ref="E78">INDEX(N78:Q78,case_number)</f>
-        <v>2873.4712793631561</v>
+        <v>2873.6203958035926</v>
       </c>
       <c r="F78" s="107" cm="1">
         <f t="array" aca="1" ref="F78" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.0")/1000</f>
-        <v>2873.4712660397759</v>
+        <v>2873.6203875123583</v>
       </c>
       <c r="G78" s="118">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.6366846747651837E-9</v>
+        <v>-2.8852921188147788E-9</v>
       </c>
       <c r="K78" s="106"/>
       <c r="L78" s="112" t="s">
@@ -40361,15 +40361,15 @@
       </c>
       <c r="E79" s="107" cm="1">
         <f t="array" ref="E79">INDEX(N79:Q79,case_number)</f>
-        <v>712.67155159683637</v>
+        <v>681.32565393551567</v>
       </c>
       <c r="F79" s="107" cm="1">
         <f t="array" aca="1" ref="F79" ca="1">-INDIRECT(sheet_name&amp;"!DZ_gap")</f>
-        <v>712.67155330455603</v>
+        <v>681.3256543935745</v>
       </c>
       <c r="G79" s="118">
         <f ca="1">(F79-E79)/E79</f>
-        <v>2.3962225766619479E-9</v>
+        <v>6.7230526026688042E-10</v>
       </c>
       <c r="H79" s="153"/>
       <c r="I79" s="139"/>
@@ -40589,15 +40589,15 @@
       </c>
       <c r="E84" s="111" cm="1">
         <f t="array" ref="E84">INDEX(N84:Q84,case_number)</f>
-        <v>2768.4830316768875</v>
+        <v>1774.9582977160969</v>
       </c>
       <c r="F84" s="111" cm="1">
         <f t="array" aca="1" ref="F84" ca="1">INDIRECT(sheet_name&amp;"!gap.stiffness")</f>
-        <v>2768.4830383107897</v>
+        <v>1774.9582989094115</v>
       </c>
       <c r="G84" s="118">
         <f ca="1">(F84-E84)/E84</f>
-        <v>2.3962227787921048E-9</v>
+        <v>6.7230569630928792E-10</v>
       </c>
       <c r="I84" s="138"/>
       <c r="K84" s="106">
@@ -40640,7 +40640,7 @@
       </c>
       <c r="E85" s="111" cm="1">
         <f t="array" ref="E85">INDEX(N85:Q85,case_number)</f>
-        <v>1058.7224915491406</v>
+        <v>594.89447044033909</v>
       </c>
       <c r="F85" s="111" t="s">
         <v>85</v>
@@ -40687,15 +40687,15 @@
       </c>
       <c r="E86" s="111" cm="1">
         <f t="array" ref="E86">INDEX(N86:Q86,case_number)</f>
-        <v>1238.3066227426382</v>
+        <v>800.4072256196913</v>
       </c>
       <c r="F86" s="111" cm="1">
         <f t="array" aca="1" ref="F86" ca="1">INDIRECT(sheet_name&amp;"!gap.k_shell")</f>
-        <v>1238.3066227426382</v>
+        <v>800.40722561969153</v>
       </c>
       <c r="G86" s="118">
         <f ca="1">(F86-E86)/E86</f>
-        <v>0</v>
+        <v>2.840724923081433E-16</v>
       </c>
       <c r="H86" t="s">
         <v>152</v>
@@ -40735,15 +40735,15 @@
       </c>
       <c r="E87" s="111" cm="1">
         <f t="array" ref="E87">INDEX(N87:Q87,case_number)</f>
-        <v>1238.3066227426382</v>
+        <v>800.4072256196913</v>
       </c>
       <c r="F87" s="111" cm="1">
         <f t="array" aca="1" ref="F87" ca="1">INDIRECT(sheet_name&amp;"!gap.k_shell")</f>
-        <v>1238.3066227426382</v>
+        <v>800.40722561969153</v>
       </c>
       <c r="G87" s="118">
         <f ca="1">(F87-E87)/E87</f>
-        <v>0</v>
+        <v>2.840724923081433E-16</v>
       </c>
       <c r="H87" t="s">
         <v>150</v>
@@ -40786,11 +40786,11 @@
       </c>
       <c r="E88" s="109" cm="1">
         <f t="array" ref="E88">INDEX(N88:Q88,case_number)</f>
-        <v>2.5046502375317257</v>
+        <v>2.9062003167089676</v>
       </c>
       <c r="F88" s="109" cm="1">
         <f t="array" aca="1" ref="F88" ca="1">INDIRECT(sheet_name&amp;"!gap.k_fac")</f>
-        <v>2.5046502375317257</v>
+        <v>2.9062003167089676</v>
       </c>
       <c r="G88" s="118">
         <f ca="1">(F88-E88)/E88</f>
@@ -40837,15 +40837,15 @@
       </c>
       <c r="E89" s="107" cm="1">
         <f t="array" ref="E89">INDEX(N89:Q89,case_number)</f>
-        <v>20.094755292310523</v>
+        <v>6.3920006148981718</v>
       </c>
       <c r="F89" s="107" cm="1">
         <f t="array" aca="1" ref="F89" ca="1">INDIRECT(sheet_name&amp;"!gap.k_fl")</f>
-        <v>20.094758307720781</v>
+        <v>6.3920011573135929</v>
       </c>
       <c r="G89" s="118">
         <f ca="1">(F89-E89)/E89</f>
-        <v>1.5005956597260118E-7</v>
+        <v>8.4858474474946531E-8</v>
       </c>
       <c r="I89" s="138"/>
       <c r="K89" s="106">
@@ -40888,7 +40888,7 @@
       </c>
       <c r="E90" s="110" cm="1">
         <f t="array" ref="E90">INDEX(N90:Q90,case_number)</f>
-        <v>577.93880888131434</v>
+        <v>579.62119250410046</v>
       </c>
       <c r="F90" s="110" t="s">
         <v>85</v>
@@ -40938,7 +40938,7 @@
       </c>
       <c r="E91" s="110" cm="1">
         <f t="array" ref="E91">INDEX(N91:Q91,case_number)</f>
-        <v>305.87604526965976</v>
+        <v>298.39439776040422</v>
       </c>
       <c r="F91" s="110" t="s">
         <v>85</v>
@@ -41239,19 +41239,19 @@
       </c>
       <c r="E97" s="109" cm="1">
         <f t="array" ref="E97">INDEX(N97:Q97,case_number)</f>
-        <v>1.176771554766646</v>
+        <v>1.1112353497098411</v>
       </c>
       <c r="F97" s="109" cm="1">
         <f t="array" aca="1" ref="F97" ca="1">INDIRECT(sheet_name&amp;"!stiffness_correction_factor")</f>
-        <v>1.1767773891792821</v>
+        <v>1.1112390055117838</v>
       </c>
       <c r="G97" s="118">
         <f ca="1">(F97-E97)/E97</f>
-        <v>4.9579823819643497E-6</v>
+        <v>3.2898538942991016E-6</v>
       </c>
       <c r="I97" s="155">
         <f ca="1">F97</f>
-        <v>1.1767773891792821</v>
+        <v>1.1112390055117838</v>
       </c>
       <c r="K97" s="106">
         <f>K96+1</f>
@@ -41334,15 +41334,15 @@
       </c>
       <c r="E99" s="107" cm="1">
         <f t="array" ref="E99">INDEX(N99:Q99,case_number)</f>
-        <v>15661.360422673919</v>
+        <v>15956.782644600848</v>
       </c>
       <c r="F99" s="107" cm="1">
         <f t="array" aca="1" ref="F99" ca="1">INDIRECT(sheet_name&amp;"!k_seg")</f>
-        <v>15660.843568082577</v>
+        <v>15956.258245417217</v>
       </c>
       <c r="G99" s="118">
         <f ca="1">(F99-E99)/E99</f>
-        <v>-3.3001896220571664E-5</v>
+        <v>-3.2863716659570941E-5</v>
       </c>
       <c r="I99" s="138"/>
       <c r="K99" s="106">
@@ -41385,15 +41385,15 @@
       </c>
       <c r="E100" s="111" cm="1">
         <f t="array" ref="E100">INDEX(N100:Q100,case_number)</f>
-        <v>1355.5804720029787</v>
+        <v>1386.9263696642993</v>
       </c>
       <c r="F100" s="111" cm="1">
         <f t="array" aca="1" ref="F100" ca="1">ROUND(INDIRECT(sheet_name&amp;"!Z_2_td"),0)</f>
-        <v>1356</v>
+        <v>1387</v>
       </c>
       <c r="G100" s="118">
         <f ca="1">(F100-E100)/E100</f>
-        <v>3.0948217806753948E-4</v>
+        <v>5.3088856994296868E-5</v>
       </c>
       <c r="I100" s="138"/>
       <c r="K100" s="106">
@@ -41436,15 +41436,15 @@
       </c>
       <c r="E101" s="109" cm="1">
         <f t="array" ref="E101">INDEX(N101:Q101,case_number)</f>
-        <v>0.44593813300367485</v>
+        <v>0.44780286498460981</v>
       </c>
       <c r="F101" s="109" cm="1">
         <f t="array" aca="1" ref="F101" ca="1">INDIRECT(sheet_name&amp;"!u")</f>
-        <v>0.44595284973156152</v>
+        <v>0.44781758178683745</v>
       </c>
       <c r="G101" s="118">
         <f ca="1">(F101-E101)/E101</f>
-        <v>3.3001725570179674E-5</v>
+        <v>3.2864466439153234E-5</v>
       </c>
       <c r="H101" t="s">
         <v>303</v>
@@ -41490,7 +41490,7 @@
       </c>
       <c r="E102" s="110" cm="1">
         <f t="array" ref="E102">INDEX(N102:Q102,case_number)</f>
-        <v>0.44593813300367485</v>
+        <v>0.44780286498460981</v>
       </c>
       <c r="F102" s="104"/>
       <c r="G102" s="104"/>
@@ -41704,15 +41704,15 @@
       </c>
       <c r="E107" s="113" cm="1">
         <f t="array" ref="E107">INDEX(N107:Q107,case_number)</f>
-        <v>-4.1273157321486523E-2</v>
+        <v>-3.9991657172324724E-2</v>
       </c>
       <c r="F107" s="113" cm="1">
         <f t="array" aca="1" ref="F107" ca="1">INDIRECT(sheet_name&amp;"!true_force_initial_slope")</f>
-        <v>-4.1290126123722036E-2</v>
+        <v>-4.000852424480493E-2</v>
       </c>
       <c r="G107" s="118">
         <f ca="1">(F107-E107)/E107</f>
-        <v>4.1113409626841025E-4</v>
+        <v>4.2176477977708289E-4</v>
       </c>
       <c r="I107" s="105"/>
       <c r="K107" s="106">
@@ -41755,15 +41755,15 @@
       </c>
       <c r="E108" s="108" cm="1">
         <f t="array" ref="E108">INDEX(N108:Q108,case_number)</f>
-        <v>2876.0206365786607</v>
+        <v>2876.0199958285862</v>
       </c>
       <c r="F108" s="108" cm="1">
         <f t="array" aca="1" ref="F108" ca="1">INDIRECT(sheet_name&amp;"!point4.Fs")</f>
-        <v>2876.0206450630621</v>
+        <v>2876.0200042621223</v>
       </c>
       <c r="G108" s="118">
         <f ca="1">(F108-E108)/E108</f>
-        <v>2.9500488617956615E-9</v>
+        <v>2.932363511896913E-9</v>
       </c>
       <c r="I108" s="103"/>
       <c r="K108" s="106">
@@ -42149,15 +42149,15 @@
       </c>
       <c r="E117" s="113" cm="1">
         <f t="array" ref="E117">INDEX(N117:Q117,case_number)</f>
-        <v>0.11725529950692204</v>
+        <v>0.13574413986533135</v>
       </c>
       <c r="F117" s="113" cm="1">
         <f t="array" aca="1" ref="F117" ca="1">INDIRECT(sheet_name&amp;"!true_moment_initial_slope")</f>
-        <v>0.11718683242729658</v>
+        <v>0.13567505953250444</v>
       </c>
       <c r="G117" s="118">
         <f ca="1">(F117-E117)/E117</f>
-        <v>-5.8391458563815044E-4</v>
+        <v>-5.0890103171626479E-4</v>
       </c>
       <c r="H117" t="s">
         <v>303</v>
@@ -42246,15 +42246,15 @@
       </c>
       <c r="E119" s="108" cm="1">
         <f t="array" ref="E119">INDEX(N119:Q119,case_number)</f>
-        <v>-30.365536366668998</v>
+        <v>-32.162160737304482</v>
       </c>
       <c r="F119" s="108" cm="1">
         <f t="array" aca="1" ref="F119" ca="1">INDIRECT(sheet_name&amp;"!point4.Ms")</f>
-        <v>-30.362969733227942</v>
+        <v>-32.159497979192565</v>
       </c>
       <c r="G119" s="118">
         <f ca="1">(F119-E119)/E119</f>
-        <v>-8.4524554747308426E-5</v>
+        <v>-8.2791642441755651E-5</v>
       </c>
       <c r="H119" t="s">
         <v>303</v>
@@ -42417,7 +42417,7 @@
       </c>
       <c r="E123" s="108" cm="1">
         <f t="array" ref="E123">INDEX(N123:Q123,case_number)</f>
-        <v>-82.928009654801173</v>
+        <v>-87.818771136704058</v>
       </c>
       <c r="F123" s="109" t="s">
         <v>85</v>
@@ -42501,7 +42501,7 @@
       </c>
       <c r="E125" s="108" cm="1">
         <f t="array" ref="E125">INDEX(N125:Q125,case_number)</f>
-        <v>-4.5888103447101454E-3</v>
+        <v>-4.4463312730118956E-3</v>
       </c>
       <c r="F125" s="109" t="s">
         <v>85</v>
@@ -42543,7 +42543,7 @@
       </c>
       <c r="E126" s="108" cm="1">
         <f t="array" ref="E126">INDEX(N126:Q126,case_number)</f>
-        <v>-82.860748004523572</v>
+        <v>-87.747542664001102</v>
       </c>
       <c r="F126" s="109" t="s">
         <v>85</v>
@@ -42585,7 +42585,7 @@
       </c>
       <c r="E127" s="108" cm="1">
         <f t="array" ref="E127">INDEX(N127:Q127,case_number)</f>
-        <v>-8.3695316491573871E-3</v>
+        <v>-8.4500432100554114E-3</v>
       </c>
       <c r="F127" s="109" t="s">
         <v>85</v>
@@ -42627,7 +42627,7 @@
       </c>
       <c r="E128" s="108" cm="1">
         <f t="array" ref="E128">INDEX(N128:Q128,case_number)</f>
-        <v>-30.306908716915537</v>
+        <v>-32.094288667371821</v>
       </c>
       <c r="F128" s="109" t="s">
         <v>85</v>
@@ -42663,7 +42663,7 @@
       </c>
       <c r="E129" s="108" cm="1">
         <f t="array" ref="E129">INDEX(N129:Q129,case_number)</f>
-        <v>2747.9795232612087</v>
+        <v>2777.9633194042804</v>
       </c>
       <c r="F129" s="109" t="s">
         <v>85</v>
@@ -42699,7 +42699,7 @@
       </c>
       <c r="E130" s="108" cm="1">
         <f t="array" ref="E130">INDEX(N130:Q130,case_number)</f>
-        <v>29.914262942846175</v>
+        <v>29.914253863045033</v>
       </c>
       <c r="F130" s="109" t="s">
         <v>85</v>
@@ -42732,7 +42732,7 @@
       </c>
       <c r="E131" s="108" cm="1">
         <f t="array" ref="E131">INDEX(N131:Q131,case_number)</f>
-        <v>5.2498498939713804E-4</v>
+        <v>5.2316350850340257E-4</v>
       </c>
       <c r="F131" s="109" t="s">
         <v>85</v>
@@ -42768,7 +42768,7 @@
       </c>
       <c r="E132" s="108" cm="1">
         <f t="array" ref="E132">INDEX(N132:Q132,case_number)</f>
-        <v>0.24665534964154662</v>
+        <v>0.26469522533108131</v>
       </c>
       <c r="F132" s="109" t="s">
         <v>85</v>
@@ -42804,7 +42804,7 @@
       </c>
       <c r="E133" s="108" cm="1">
         <f t="array" ref="E133">INDEX(N133:Q133,case_number)</f>
-        <v>-7.8765698051197433</v>
+        <v>-7.4120953847063902</v>
       </c>
       <c r="F133" s="109" t="s">
         <v>85</v>
